--- a/Requisitos-Historias_Usuario/Requisitos-Historias_Usuario.xlsx
+++ b/Requisitos-Historias_Usuario/Requisitos-Historias_Usuario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\Requisitos-Historias_Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B3B85-8774-4783-82B9-D127A68936E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DA58E-BDA7-4369-886C-A5D4ED884605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499CA4CF-450D-45CD-81A2-DB060D33A0E2}">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
